--- a/biology/Zoologie/Erebia_magdalena/Erebia_magdalena.xlsx
+++ b/biology/Zoologie/Erebia_magdalena/Erebia_magdalena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia magdalena est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia magdalena a été nommé par Ferdinand Heinrich Hermann Strecker en 1864[1].
-Sous-espèces
-Erebia magdalena mackinleyensis Gunder, 1932 ; présent en Alaska[1].
-Toutefois les travaux d'Hilchie en 1990 tendent à prouver qu'Erebia magdalena mackinleyensis est une espèce distincte, Erebia mackinleyensis.
-Nom vernaculaire
-Erebia magdalena se nomme Magdalena Alpine en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia magdalena a été nommé par Ferdinand Heinrich Hermann Strecker en 1864.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia magdalena est un papillon marron foncé presque noir sur ses deux faces, parsemé d'une pubescence blanche constituée par des écailles blanches clairsemées. Il est de taille moyenne avec une envergure de 41 à 51 mm[2],[3].
-Chenille
-La chenille est poilue, verte marbrée de noir, et sa tête est marron foncé[2].
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia magdalena mackinleyensis Gunder, 1932 ; présent en Alaska.
+Toutefois les travaux d'Hilchie en 1990 tendent à prouver qu'Erebia magdalena mackinleyensis est une espèce distincte, Erebia mackinleyensis.
 </t>
         </is>
       </c>
@@ -577,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de début juillet à mi-août[2].
-Il hiverne au stade de chenille[3].
-Plantes hôtes
-La plante hôte de sa chenilles est un Carex, Carex atrata[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia magdalena se nomme Magdalena Alpine en anglais.
 </t>
         </is>
       </c>
@@ -612,16 +628,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia magdalena est un papillon marron foncé presque noir sur ses deux faces, parsemé d'une pubescence blanche constituée par des écailles blanches clairsemées. Il est de taille moyenne avec une envergure de 41 à 51 mm,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est poilue, verte marbrée de noir, et sa tête est marron foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de début juillet à mi-août.
+Il hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenilles est un Carex, Carex atrata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Nord en Alaska, au Canada en Alberta, dans le nord de la Colombie-Britannique et dans un isolat dans le Yukon,  aux USA dans les Montagnes Rocheuses, dans les états du Montana, Wyoming, Colorado, Utah et dans le nord du Nouveau-Mexique[1],[2],[3].
-Biotope
-Il réside en altitude dans les zones d'éboulis[2].
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Nord en Alaska, au Canada en Alberta, dans le nord de la Colombie-Britannique et dans un isolat dans le Yukon,  aux USA dans les Montagnes Rocheuses, dans les états du Montana, Wyoming, Colorado, Utah et dans le nord du Nouveau-Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en altitude dans les zones d'éboulis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_magdalena</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
